--- a/document/exampleToUpload.xlsx
+++ b/document/exampleToUpload.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\Desktop\프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\Documents\DangoChan\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855458CC-1D11-400F-A0CA-8C6ED2C109B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730E11A6-0907-48BF-A666-CFF004A9E3D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20760" windowHeight="4176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>단어</t>
   </si>
@@ -53,9 +53,6 @@
     <t>신상품을 선전하기 위해 TV 광고를 만들었습니다.</t>
   </si>
   <si>
-    <t>組織[そしき]</t>
-  </si>
-  <si>
     <t>조직</t>
   </si>
   <si>
@@ -66,45 +63,6 @@
   </si>
   <si>
     <t>산 정상에서의 경치는 장관이었습니다.</t>
-  </si>
-  <si>
-    <t>古い家具を倉庫に保管しました。</t>
-  </si>
-  <si>
-    <t>오래된 가구를 창고에 보관했습니다.</t>
-  </si>
-  <si>
-    <t>この機械の操作は簡?です。</t>
-  </si>
-  <si>
-    <t>이 기계의 조작은 간단합니다.</t>
-  </si>
-  <si>
-    <t>?前で大きな?動が起こりました。</t>
-  </si>
-  <si>
-    <t>역 앞에서 큰 소동이 일어났습니다.</t>
-  </si>
-  <si>
-    <t>率直な意見を聞かせてください。</t>
-  </si>
-  <si>
-    <t>솔직한 의견을 들려주세요.</t>
-  </si>
-  <si>
-    <t>彼は突然のショックで卒倒しました。</t>
-  </si>
-  <si>
-    <t>그는 갑작스러운 충격으로 졸도했습니다.</t>
-  </si>
-  <si>
-    <t>타당</t>
-  </si>
-  <si>
-    <t>その判?は妥?だと思います。</t>
-  </si>
-  <si>
-    <t>그 판단은 타당하다고 생각합니다.</t>
   </si>
   <si>
     <r>
@@ -245,10 +203,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>주제넘다, 아니꼽다</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>い형용사</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -484,41 +438,46 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>洗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="새굴림"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>剤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>[せん</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ざい]</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>今日は天気が良いですね。</t>
+  </si>
+  <si>
+    <t>오늘은 날씨가 좋네요.</t>
+  </si>
+  <si>
+    <t>海外で働いているなんて羨ましいです。</t>
+  </si>
+  <si>
+    <t>해외에서 일하다니 부럽네요.</t>
+  </si>
+  <si>
+    <t>건방지다, 주제넘다</t>
+  </si>
+  <si>
+    <t>私が意見を言うのはおこがましいですが、一言だけ言わせてください。</t>
+  </si>
+  <si>
+    <t>제가 의견을 말하는 것이 주제넘지만, 한마디만 하겠습니다.</t>
+  </si>
+  <si>
+    <t>彼の言い訳を聞いても、どうしても割り切れない。</t>
+  </si>
+  <si>
+    <t>그의 변명을 들어도 도저히 납득이 가지 않는다.</t>
+  </si>
+  <si>
+    <t>荷物が無事に届きました。</t>
+  </si>
+  <si>
+    <t>짐이 무사히 도착했습니다.</t>
+  </si>
+  <si>
+    <t>宿題をするのが面倒だ。</t>
+  </si>
+  <si>
+    <t>귀찮다, 성가시다</t>
+  </si>
+  <si>
+    <t>숙제하는 것이 귀찮다.</t>
   </si>
 </sst>
 </file>
@@ -1528,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1539,7 +1498,8 @@
     <col min="1" max="1" width="19.69921875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="18.796875" customWidth="1"/>
-    <col min="4" max="4" width="47.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
@@ -1561,7 +1521,7 @@
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1570,7 +1530,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -1578,7 +1538,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1587,7 +1547,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -1595,157 +1555,141 @@
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
